--- a/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run2_5.xlsx
+++ b/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run2_5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qlab\Documents\new_fmri\visual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\blast\sl_fmri\shortened_fmri\modified_visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
   <si>
     <t>image</t>
   </si>
@@ -44,43 +44,43 @@
     <t>repetition</t>
   </si>
   <si>
-    <t>Alien10.bmp</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Alien8.bmp</t>
-  </si>
-  <si>
-    <t>Alien9.bmp</t>
-  </si>
-  <si>
-    <t>Alien4.bmp</t>
-  </si>
-  <si>
-    <t>Alien7.bmp</t>
-  </si>
-  <si>
-    <t>Alien5.bmp</t>
-  </si>
-  <si>
-    <t>Alien2.bmp</t>
-  </si>
-  <si>
-    <t>Alien12.bmp</t>
-  </si>
-  <si>
-    <t>Alien6.bmp</t>
-  </si>
-  <si>
-    <t>Alien3.bmp</t>
-  </si>
-  <si>
-    <t>Alien11.bmp</t>
-  </si>
-  <si>
-    <t>Alien1.bmp</t>
+    <t>M.png</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>K.png</t>
+  </si>
+  <si>
+    <t>B.png</t>
+  </si>
+  <si>
+    <t>D.png</t>
+  </si>
+  <si>
+    <t>G.png</t>
+  </si>
+  <si>
+    <t>C.png</t>
+  </si>
+  <si>
+    <t>E.png</t>
+  </si>
+  <si>
+    <t>L.png</t>
+  </si>
+  <si>
+    <t>H.png</t>
+  </si>
+  <si>
+    <t>A.png</t>
+  </si>
+  <si>
+    <t>J.png</t>
+  </si>
+  <si>
+    <t>F.png</t>
   </si>
 </sst>
 </file>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD25"/>
+      <selection activeCell="A26" sqref="A26:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>241</v>
@@ -437,18 +437,18 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>242</v>
@@ -457,18 +457,18 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>243</v>
@@ -477,18 +477,18 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>244</v>
@@ -497,18 +497,18 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>245</v>
@@ -517,18 +517,18 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>246</v>
@@ -537,18 +537,18 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>247</v>
@@ -557,18 +557,18 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>248</v>
@@ -577,18 +577,18 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>249</v>
@@ -597,13 +597,13 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -617,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,18 +637,18 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>252</v>
@@ -657,18 +657,18 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>253</v>
@@ -677,18 +677,18 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>254</v>
@@ -697,13 +697,13 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,18 +717,18 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>256</v>
@@ -737,18 +737,18 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>257</v>
@@ -757,18 +757,18 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>258</v>
@@ -777,18 +777,18 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>259</v>
@@ -797,18 +797,18 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>260</v>
@@ -817,18 +817,18 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>261</v>
@@ -837,18 +837,18 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>262</v>
@@ -857,18 +857,18 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>263</v>
@@ -877,18 +877,18 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>264</v>
@@ -897,13 +897,493 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>265</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>267</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>268</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>270</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>271</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>272</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>273</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>276</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>277</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>279</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>280</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>281</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>282</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>283</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>284</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>285</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>286</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>288</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
